--- a/data/大众店铺查询测试_1/data_renew.xlsx
+++ b/data/大众店铺查询测试_1/data_renew.xlsx
@@ -13,10 +13,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>0_城市</t>
-  </si>
-  <si>
-    <t>0_关键词</t>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>关键词</t>
   </si>
   <si>
     <t>status</t>
